--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Achocolatados.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Achocolatados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bebida Láctea Uht Chocolate Toddynho Caixa 200ml</t>
+          <t>Bebida Láctea Nutren Protein 15g 260ml Chocolate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/178b0676-4684-48f2-868e-164c24975c6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/775ec7ea-232c-44d7-9119-f3dbfcd7d944.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000405079</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bebida Láctea De Chocolate Italac 200ml</t>
+          <t>Farinha Lactea Nestle Trad 360g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 1,89</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f594c9c-7b77-48a5-89da-491ca5506872.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ee3371-933c-4eb2-9799-06f42ccd46ef.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000078518</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Achocolatado Nescau Em Pó Sachê 550g</t>
+          <t>Bebida Láctea Nescau 1lt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b17d52e5-a579-4920-8f2e-6e3953a41d22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfb42e41-efe7-439a-8c5f-2c7811f9377c.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891000081501</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Achocolatado Pó Original Toddy Pote 370g</t>
+          <t>Nutren Senior Nestle 370g Baunilha</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 79,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02aaa848-7757-47ac-b046-c85b76b5d64e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fb7004-0657-4400-af20-a848b09185c9.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891000241547</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bebida Láctea Nescau Chocolate 180ml</t>
+          <t>Nutren Senior Nestle 370g Cafe Com Leite</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 79,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25d33600-9952-49c3-bbff-e85a00cf4635.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bdbc6a6-3d9a-4365-81d0-f77c5c8efcc5.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891000120606</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bebida Lactea Kids Quata 180ml Chocolate</t>
+          <t>Nutren Senior Nestle 370g Chocolate</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 1,79</t>
+          <t>R$ 79,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a71709ab-ca68-45de-a91f-326780a6f80b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed2fa925-1975-4dbb-849d-749cde512f15.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891000243015</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Italac Sachê 400g</t>
+          <t>Nutren Senior Nestle 370g Sem Sabor</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 79,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f69367ec-1edc-489c-bad6-a5cc6dab410c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/756e2c47-5c57-42be-bdec-f4834b86366d.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891000241547</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Toddy Original 750g</t>
+          <t>Bebida Láctea Nescau Chocolate 180ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c259e3e-d464-4a17-967c-7960891799bd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25d33600-9952-49c3-bbff-e85a00cf4635.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891000359822</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Achocolatado Pó 3 Corações Chocolatto Pacote 700g</t>
+          <t>Achocolatado Em Pó Nescau 180g 30% Cacau</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5bc62be-7479-4164-9b2f-0bcfdadfebe4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08f86f5d-6405-466c-8ce0-4539dfc40c61.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891000377765</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bebida Láctea Levinho Toddynho 200ml</t>
+          <t>Achocolatado Em Pó Nescau 180g 60% Cacau</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20e3216-3e9c-42d9-82bc-06dd5f9e6158.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a3a25e6-6298-46e5-a33d-c9fc73b3ec0e.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891000377727</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Nescau Lata 350g</t>
+          <t>Bebida Lactea Kids Quata 180ml Chocolate</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 1,79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbab81be-6768-4b5a-b301-89bce2b92452.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a71709ab-ca68-45de-a91f-326780a6f80b.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891000359822</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Farinha Lactea Nestle Trad 360g</t>
+          <t>Achocolatado Em Po Nescau 33% Menos Açucar 350g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ee3371-933c-4eb2-9799-06f42ccd46ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19cd36e2-20de-4332-91d8-e026264795fc.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891000390030</t>
         </is>
       </c>
     </row>
@@ -785,7 +850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Original Toddy Pote 200g</t>
+          <t>Bebida Lactea Nescau 270ml Choc Extra Cacau</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -795,7 +860,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f7cf3f18-b8f4-4409-b158-b1a5f5c0a534.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/724d921f-f0ea-48c0-81bd-f3e4911d8baf.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891000401903</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Light Toddy Pote 380g</t>
+          <t>Bebida Láctea Nutren Protein 15g 260ml Baunilha</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da4813db-f88b-42d1-b0ff-c00e51b4dda8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac2d7b94-49c4-4927-8cfc-f12ae13b2114.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891000405222</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bebida Láctea Italakinho Chocolate Zero Lactose 200ml</t>
+          <t>Neston Nestle 3 Cereais 360g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 2,59</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf4ca68c-fea2-4bb1-abee-6980e0747c54.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/026a3fd6-fb12-4e8f-b749-b34e47ab363b.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891000288474</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bebida Lactea Italac 1l Chocolate</t>
+          <t>Bebida Láctea Starbucks Frapuccino 280ml Caramelo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8643be0-0335-40d6-8517-b27babb0a1ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dcb12ff-e090-46d3-8b10-69aa62a14da0.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891000369715</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bebida Láctea Neston 280ml</t>
+          <t>Bebida Láctea Starbucks Frappuccino 280ml Mocha</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/241e4f5a-215e-416c-bd74-373ea6b58f8a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56fd80df-5119-4543-99fd-dd33a55b8c1b.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891000371336</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Achocolatado Ovomaltine Flocos Crocantes 190g</t>
+          <t>Bebida Nescafé Proenergy 270ml Cappuccino Canela</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee0cb527-c705-4734-a60e-338d303ca0ae.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bb2b306-6527-492c-ae6d-d1c4ed730e2c.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891000417348</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Nescau 180g 60% Cacau</t>
+          <t>Bebida Nescafé Proenergy 270ml Chococino</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a3a25e6-6298-46e5-a33d-c9fc73b3ec0e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16c992a-a461-4229-b2dc-2af7c64c275b.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891000417409</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Ovomaltine 300g Flocos Crocante</t>
+          <t>Bebida Láctea 3 Corações 260ml Cappuccino Zero</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1f7f324-d68a-41a3-b874-ee320bada620.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58311cff-7699-4ea7-b527-f021a0d5130a.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896045113668</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bebida Láctea Quata 1l Chocolate</t>
+          <t>Bebida Láctea Cappuccino Power Whey 3 Corações 260ml</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af4f947d-2e79-4839-9bdc-7084900df712.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d6e8ff9-e06f-46fd-8944-b572ab649b2b.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896045104499</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1138,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bebida Láctea Alpino Nestle 280ml</t>
+          <t>Bebida Lactea 3c Cappucino Caramelo 260ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1038,7 +1148,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/baf6e3b3-4a6c-4c56-a965-d4b9096b8af2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41c693da-0b15-4585-a985-19937e9df5a8.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896045113675</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bebida Láctea Nescau 1lt</t>
+          <t>Bebida Lactea 3c Cappucino Chocolate 260ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfb42e41-efe7-439a-8c5f-2c7811f9377c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18ca4ba5-8f4c-41bf-9bc3-7065a13d2c48.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896045113668</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Achocolatado Em Po Nescau 33% Menos Açucar 350g</t>
+          <t>Bebida Lactea 3c Cappucino Classic 260ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19cd36e2-20de-4332-91d8-e026264795fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3728e853-d59e-4200-8059-71e1b2158bc2.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896005809518</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Neston Nestle 3 Cereais 360g</t>
+          <t>Bebida Lactea 3c Cappucino Cookies 260ml</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/026a3fd6-fb12-4e8f-b749-b34e47ab363b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54457c6d-cc42-4c32-b559-e83ff75bbe0a.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896045113668</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Achocolatado Com Flocos Crocantes Ovomaltine 750g</t>
+          <t>Bebida Lactea 3c Cappucino Pingado 260ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c37341d-7add-4c19-b2eb-3be984a5d357.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15ae2620-f397-4270-bee1-7401e587e0fb.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896045104482</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bebida Lactea Nescau 270ml Chocolate</t>
+          <t>Bebida Láctea Italakinho Chocolate Zero Lactose 200ml</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 2,59</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a99493ea-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf4ca68c-fea2-4bb1-abee-6980e0747c54.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bebida Láctea Nescafé 270ml Smoovlatté</t>
+          <t>Bebida Láctea De Chocolate Italac 200ml</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 1,89</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4ce330e-0dec-42f2-a215-87c892eb6d5c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f594c9c-7b77-48a5-89da-491ca5506872.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898080640239</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Achocolatado Em Pó Nescau 180g 30% Cacau</t>
+          <t>Achocolatado Em Pó Ovomaltine 300g Flocos Crocante</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/08f86f5d-6405-466c-8ce0-4539dfc40c61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1f7f324-d68a-41a3-b874-ee320bada620.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898409951848</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bebida Láctea Starbucks Frapuccino 280ml Caramelo</t>
+          <t>Achocolatado Em Pó Light Toddy Pote 380g</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dcb12ff-e090-46d3-8b10-69aa62a14da0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da4813db-f88b-42d1-b0ff-c00e51b4dda8.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7894321711058</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nutren Senior Nestle 370g Sem Sabor</t>
+          <t>Bebida Lactea Nescau 270ml Chocolate</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/756e2c47-5c57-42be-bdec-f4834b86366d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a99493ea-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891000359822</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bebida Láctea Starbucks Frappuccino 280ml Mocha</t>
+          <t>Bebida Láctea Neston 280ml</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/56fd80df-5119-4543-99fd-dd33a55b8c1b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/241e4f5a-215e-416c-bd74-373ea6b58f8a.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891000090732</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nutren Senior Nestle 370g Cafe Com Leite</t>
+          <t>Bebida Láctea Alpino Nestle 280ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4bdbc6a6-3d9a-4365-81d0-f77c5c8efcc5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/baf6e3b3-4a6c-4c56-a965-d4b9096b8af2.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891000067048</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nutren Senior Nestle 370g Baunilha</t>
+          <t>Achocolatado Ovomaltine Flocos Crocantes 190g</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2fb7004-0657-4400-af20-a848b09185c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee0cb527-c705-4734-a60e-338d303ca0ae.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898409951848</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bebida Lactea Nescau 270ml Choc Extra Cacau</t>
+          <t>Bebida Láctea Quata 1l Chocolate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/724d921f-f0ea-48c0-81bd-f3e4911d8baf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af4f947d-2e79-4839-9bdc-7084900df712.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898598750499</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nutren Senior Nestle 370g Chocolate</t>
+          <t>Bebida Lactea Italac 1l Chocolate</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 79,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed2fa925-1975-4dbb-849d-749cde512f15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8643be0-0335-40d6-8517-b27babb0a1ff.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bebida Láctea Nutren Protein 15g 260ml Baunilha</t>
+          <t>Bebida Láctea Levinho Toddynho 200ml</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac2d7b94-49c4-4927-8cfc-f12ae13b2114.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c20e3216-3e9c-42d9-82bc-06dd5f9e6158.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7894321242521</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bebida Láctea Nutren Protein 15g 260ml Chocolate</t>
+          <t>Achocolatado Com Flocos Crocantes Ovomaltine 750g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/775ec7ea-232c-44d7-9119-f3dbfcd7d944.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c37341d-7add-4c19-b2eb-3be984a5d357.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898409950155</t>
         </is>
       </c>
     </row>
@@ -1487,260 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bebida Nescafé Proenergy 270ml Cappuccino Canela</t>
+          <t>Bebida Láctea Uht Chocolate Toddynho Caixa 200ml</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bb2b306-6527-492c-ae6d-d1c4ed730e2c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Bebida Nescafé Proenergy 270ml Cappuccino Clássico</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ea88287-116c-4981-9ef7-2d40c9f78ef7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Bebida Nescafé Proenergy 270ml Chococino</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16c992a-a461-4229-b2dc-2af7c64c275b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Achocolatado Em Pó Protein Nescau 330g</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5910ea1-0c06-45ba-b7d8-f024aa2bf3e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Bebida Láctea Cappuccino Power Whey 3 Corações 260ml</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d6e8ff9-e06f-46fd-8944-b572ab649b2b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 3c Cappucino Caramelo 260ml</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41c693da-0b15-4585-a985-19937e9df5a8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 3c Cappucino Chocolate 260ml</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18ca4ba5-8f4c-41bf-9bc3-7065a13d2c48.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 3c Cappucino Classic 260ml</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3728e853-d59e-4200-8059-71e1b2158bc2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 3c Cappucino Cookies 260ml</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54457c6d-cc42-4c32-b559-e83ff75bbe0a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Achocolatados</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Bebida Lactea 3c Cappucino Pingado 260ml</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15ae2620-f397-4270-bee1-7401e587e0fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/178b0676-4684-48f2-868e-164c24975c6e.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891025122050</t>
         </is>
       </c>
     </row>
